--- a/INTLINE/data/193/ABS/06_volume_measures_original_capex.xlsx
+++ b/INTLINE/data/193/ABS/06_volume_measures_original_capex.xlsx
@@ -12,179 +12,179 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A124797450V">Data1!$B$1:$B$10,Data1!$B$11:$B$148</definedName>
-    <definedName name="A124797450V_Data">Data1!$B$11:$B$148</definedName>
-    <definedName name="A124797450V_Latest">Data1!$B$148</definedName>
-    <definedName name="A124797533A">Data1!$U$1:$U$10,Data1!$U$11:$U$148</definedName>
-    <definedName name="A124797533A_Data">Data1!$U$11:$U$148</definedName>
-    <definedName name="A124797533A_Latest">Data1!$U$148</definedName>
-    <definedName name="A124797534C">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$148</definedName>
-    <definedName name="A124797534C_Data">Data1!$AN$11:$AN$148</definedName>
-    <definedName name="A124797534C_Latest">Data1!$AN$148</definedName>
-    <definedName name="A124797599T">Data1!$AK$1:$AK$10,Data1!$AK$131:$AK$148</definedName>
-    <definedName name="A124797599T_Data">Data1!$AK$131:$AK$148</definedName>
-    <definedName name="A124797599T_Latest">Data1!$AK$148</definedName>
-    <definedName name="A124797600R">Data1!$BD$1:$BD$10,Data1!$BD$131:$BD$148</definedName>
-    <definedName name="A124797600R_Data">Data1!$BD$131:$BD$148</definedName>
-    <definedName name="A124797600R_Latest">Data1!$BD$148</definedName>
-    <definedName name="A124797654W">Data1!$D$1:$D$10,Data1!$D$11:$D$148</definedName>
-    <definedName name="A124797654W_Data">Data1!$D$11:$D$148</definedName>
-    <definedName name="A124797654W_Latest">Data1!$D$148</definedName>
-    <definedName name="A124797748K">Data1!$Q$1:$Q$10,Data1!$Q$131:$Q$148</definedName>
-    <definedName name="A124797748K_Data">Data1!$Q$131:$Q$148</definedName>
-    <definedName name="A124797748K_Latest">Data1!$Q$148</definedName>
-    <definedName name="A124797831X">Data1!$AJ$1:$AJ$10,Data1!$AJ$131:$AJ$148</definedName>
-    <definedName name="A124797831X_Data">Data1!$AJ$131:$AJ$148</definedName>
-    <definedName name="A124797831X_Latest">Data1!$AJ$148</definedName>
-    <definedName name="A124797832A">Data1!$BC$1:$BC$10,Data1!$BC$131:$BC$148</definedName>
-    <definedName name="A124797832A_Data">Data1!$BC$131:$BC$148</definedName>
-    <definedName name="A124797832A_Latest">Data1!$BC$148</definedName>
-    <definedName name="A124797883A">Data1!$R$1:$R$10,Data1!$R$131:$R$148</definedName>
-    <definedName name="A124797883A_Data">Data1!$R$131:$R$148</definedName>
-    <definedName name="A124797883A_Latest">Data1!$R$148</definedName>
-    <definedName name="A124798313T">Data1!$W$1:$W$10,Data1!$W$11:$W$148</definedName>
-    <definedName name="A124798313T_Data">Data1!$W$11:$W$148</definedName>
-    <definedName name="A124798313T_Latest">Data1!$W$148</definedName>
-    <definedName name="A124798314V">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$148</definedName>
-    <definedName name="A124798314V_Data">Data1!$AP$11:$AP$148</definedName>
-    <definedName name="A124798314V_Latest">Data1!$AP$148</definedName>
-    <definedName name="A124798403W">Data1!$P$1:$P$10,Data1!$P$11:$P$148</definedName>
-    <definedName name="A124798403W_Data">Data1!$P$11:$P$148</definedName>
-    <definedName name="A124798403W_Latest">Data1!$P$148</definedName>
-    <definedName name="A124798492K">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$148</definedName>
-    <definedName name="A124798492K_Data">Data1!$AI$11:$AI$148</definedName>
-    <definedName name="A124798492K_Latest">Data1!$AI$148</definedName>
-    <definedName name="A124798493L">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$148</definedName>
-    <definedName name="A124798493L_Data">Data1!$BB$11:$BB$148</definedName>
-    <definedName name="A124798493L_Latest">Data1!$BB$148</definedName>
-    <definedName name="A124798562F">Data1!$S$1:$S$10,Data1!$S$11:$S$148</definedName>
-    <definedName name="A124798562F_Data">Data1!$S$11:$S$148</definedName>
-    <definedName name="A124798562F_Latest">Data1!$S$148</definedName>
-    <definedName name="A124798686J">Data1!$J$1:$J$10,Data1!$J$11:$J$148</definedName>
-    <definedName name="A124798686J_Data">Data1!$J$11:$J$148</definedName>
-    <definedName name="A124798686J_Latest">Data1!$J$148</definedName>
-    <definedName name="A124798775K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$148</definedName>
-    <definedName name="A124798775K_Data">Data1!$AC$11:$AC$148</definedName>
-    <definedName name="A124798775K_Latest">Data1!$AC$148</definedName>
-    <definedName name="A124798776L">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$148</definedName>
-    <definedName name="A124798776L_Data">Data1!$AV$11:$AV$148</definedName>
-    <definedName name="A124798776L_Latest">Data1!$AV$148</definedName>
-    <definedName name="A124798844C">Data1!$T$1:$T$10,Data1!$T$11:$T$148</definedName>
-    <definedName name="A124798844C_Data">Data1!$T$11:$T$148</definedName>
-    <definedName name="A124798844C_Latest">Data1!$T$148</definedName>
-    <definedName name="A124798933F">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$148</definedName>
-    <definedName name="A124798933F_Data">Data1!$AM$11:$AM$148</definedName>
-    <definedName name="A124798933F_Latest">Data1!$AM$148</definedName>
-    <definedName name="A124798934J">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$148</definedName>
-    <definedName name="A124798934J_Data">Data1!$BF$11:$BF$148</definedName>
-    <definedName name="A124798934J_Latest">Data1!$BF$148</definedName>
-    <definedName name="A124799038C">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$148</definedName>
-    <definedName name="A124799038C_Data">Data1!$AL$11:$AL$148</definedName>
-    <definedName name="A124799038C_Latest">Data1!$AL$148</definedName>
-    <definedName name="A124799039F">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$148</definedName>
-    <definedName name="A124799039F_Data">Data1!$BE$11:$BE$148</definedName>
-    <definedName name="A124799039F_Latest">Data1!$BE$148</definedName>
-    <definedName name="A3511687L">Data1!$C$1:$C$10,Data1!$C$11:$C$148</definedName>
-    <definedName name="A3511687L_Data">Data1!$C$11:$C$148</definedName>
-    <definedName name="A3511687L_Latest">Data1!$C$148</definedName>
-    <definedName name="A3511690A">Data1!$E$1:$E$10,Data1!$E$11:$E$148</definedName>
-    <definedName name="A3511690A_Data">Data1!$E$11:$E$148</definedName>
-    <definedName name="A3511690A_Latest">Data1!$E$148</definedName>
-    <definedName name="A3511693J">Data1!$F$1:$F$10,Data1!$F$11:$F$148</definedName>
-    <definedName name="A3511693J_Data">Data1!$F$11:$F$148</definedName>
-    <definedName name="A3511693J_Latest">Data1!$F$148</definedName>
-    <definedName name="A3511696R">Data1!$G$1:$G$10,Data1!$G$11:$G$148</definedName>
-    <definedName name="A3511696R_Data">Data1!$G$11:$G$148</definedName>
-    <definedName name="A3511696R_Latest">Data1!$G$148</definedName>
-    <definedName name="A3511699W">Data1!$H$1:$H$10,Data1!$H$11:$H$148</definedName>
-    <definedName name="A3511699W_Data">Data1!$H$11:$H$148</definedName>
-    <definedName name="A3511699W_Latest">Data1!$H$148</definedName>
-    <definedName name="A3511702X">Data1!$I$1:$I$10,Data1!$I$11:$I$148</definedName>
-    <definedName name="A3511702X_Data">Data1!$I$11:$I$148</definedName>
-    <definedName name="A3511702X_Latest">Data1!$I$148</definedName>
-    <definedName name="A3511705F">Data1!$K$1:$K$10,Data1!$K$11:$K$148</definedName>
-    <definedName name="A3511705F_Data">Data1!$K$11:$K$148</definedName>
-    <definedName name="A3511705F_Latest">Data1!$K$148</definedName>
-    <definedName name="A3511708L">Data1!$L$1:$L$10,Data1!$L$11:$L$148</definedName>
-    <definedName name="A3511708L_Data">Data1!$L$11:$L$148</definedName>
-    <definedName name="A3511708L_Latest">Data1!$L$148</definedName>
-    <definedName name="A3511711A">Data1!$M$1:$M$10,Data1!$M$11:$M$148</definedName>
-    <definedName name="A3511711A_Data">Data1!$M$11:$M$148</definedName>
-    <definedName name="A3511711A_Latest">Data1!$M$148</definedName>
-    <definedName name="A3511714J">Data1!$N$1:$N$10,Data1!$N$11:$N$148</definedName>
-    <definedName name="A3511714J_Data">Data1!$N$11:$N$148</definedName>
-    <definedName name="A3511714J_Latest">Data1!$N$148</definedName>
-    <definedName name="A3511717R">Data1!$O$1:$O$10,Data1!$O$11:$O$148</definedName>
-    <definedName name="A3511717R_Data">Data1!$O$11:$O$148</definedName>
-    <definedName name="A3511717R_Latest">Data1!$O$148</definedName>
-    <definedName name="A3511729X">Data1!$V$1:$V$10,Data1!$V$11:$V$148</definedName>
-    <definedName name="A3511729X_Data">Data1!$V$11:$V$148</definedName>
-    <definedName name="A3511729X_Latest">Data1!$V$148</definedName>
-    <definedName name="A3511732L">Data1!$X$1:$X$10,Data1!$X$11:$X$148</definedName>
-    <definedName name="A3511732L_Data">Data1!$X$11:$X$148</definedName>
-    <definedName name="A3511732L_Latest">Data1!$X$148</definedName>
-    <definedName name="A3511735V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$148</definedName>
-    <definedName name="A3511735V_Data">Data1!$Y$11:$Y$148</definedName>
-    <definedName name="A3511735V_Latest">Data1!$Y$148</definedName>
-    <definedName name="A3511738A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$148</definedName>
-    <definedName name="A3511738A_Data">Data1!$Z$11:$Z$148</definedName>
-    <definedName name="A3511738A_Latest">Data1!$Z$148</definedName>
-    <definedName name="A3511741R">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$148</definedName>
-    <definedName name="A3511741R_Data">Data1!$AA$11:$AA$148</definedName>
-    <definedName name="A3511741R_Latest">Data1!$AA$148</definedName>
-    <definedName name="A3511744W">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$148</definedName>
-    <definedName name="A3511744W_Data">Data1!$AB$11:$AB$148</definedName>
-    <definedName name="A3511744W_Latest">Data1!$AB$148</definedName>
-    <definedName name="A3511747C">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$148</definedName>
-    <definedName name="A3511747C_Data">Data1!$AD$11:$AD$148</definedName>
-    <definedName name="A3511747C_Latest">Data1!$AD$148</definedName>
-    <definedName name="A3511750T">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$148</definedName>
-    <definedName name="A3511750T_Data">Data1!$AE$11:$AE$148</definedName>
-    <definedName name="A3511750T_Latest">Data1!$AE$148</definedName>
-    <definedName name="A3511753X">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$148</definedName>
-    <definedName name="A3511753X_Data">Data1!$AF$11:$AF$148</definedName>
-    <definedName name="A3511753X_Latest">Data1!$AF$148</definedName>
-    <definedName name="A3511756F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$148</definedName>
-    <definedName name="A3511756F_Data">Data1!$AG$11:$AG$148</definedName>
-    <definedName name="A3511756F_Latest">Data1!$AG$148</definedName>
-    <definedName name="A3511759L">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$148</definedName>
-    <definedName name="A3511759L_Data">Data1!$AH$11:$AH$148</definedName>
-    <definedName name="A3511759L_Latest">Data1!$AH$148</definedName>
-    <definedName name="A3515833W">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$148</definedName>
-    <definedName name="A3515833W_Data">Data1!$AO$11:$AO$148</definedName>
-    <definedName name="A3515833W_Latest">Data1!$AO$148</definedName>
-    <definedName name="A3515836C">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$148</definedName>
-    <definedName name="A3515836C_Data">Data1!$AQ$11:$AQ$148</definedName>
-    <definedName name="A3515836C_Latest">Data1!$AQ$148</definedName>
-    <definedName name="A3515839K">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$148</definedName>
-    <definedName name="A3515839K_Data">Data1!$AR$11:$AR$148</definedName>
-    <definedName name="A3515839K_Latest">Data1!$AR$148</definedName>
-    <definedName name="A3515842X">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$148</definedName>
-    <definedName name="A3515842X_Data">Data1!$AS$11:$AS$148</definedName>
-    <definedName name="A3515842X_Latest">Data1!$AS$148</definedName>
-    <definedName name="A3515845F">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$148</definedName>
-    <definedName name="A3515845F_Data">Data1!$AT$11:$AT$148</definedName>
-    <definedName name="A3515845F_Latest">Data1!$AT$148</definedName>
-    <definedName name="A3515848L">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$148</definedName>
-    <definedName name="A3515848L_Data">Data1!$AU$11:$AU$148</definedName>
-    <definedName name="A3515848L_Latest">Data1!$AU$148</definedName>
-    <definedName name="A3515851A">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$148</definedName>
-    <definedName name="A3515851A_Data">Data1!$AW$11:$AW$148</definedName>
-    <definedName name="A3515851A_Latest">Data1!$AW$148</definedName>
-    <definedName name="A3515854J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$148</definedName>
-    <definedName name="A3515854J_Data">Data1!$AX$11:$AX$148</definedName>
-    <definedName name="A3515854J_Latest">Data1!$AX$148</definedName>
-    <definedName name="A3515857R">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$148</definedName>
-    <definedName name="A3515857R_Data">Data1!$AY$11:$AY$148</definedName>
-    <definedName name="A3515857R_Latest">Data1!$AY$148</definedName>
-    <definedName name="A3515860C">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$148</definedName>
-    <definedName name="A3515860C_Data">Data1!$AZ$11:$AZ$148</definedName>
-    <definedName name="A3515860C_Latest">Data1!$AZ$148</definedName>
-    <definedName name="A3515863K">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$148</definedName>
-    <definedName name="A3515863K_Data">Data1!$BA$11:$BA$148</definedName>
-    <definedName name="A3515863K_Latest">Data1!$BA$148</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$148</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$148</definedName>
+    <definedName name="A124797450V">Data1!$B$1:$B$10,Data1!$B$11:$B$149</definedName>
+    <definedName name="A124797450V_Data">Data1!$B$11:$B$149</definedName>
+    <definedName name="A124797450V_Latest">Data1!$B$149</definedName>
+    <definedName name="A124797533A">Data1!$U$1:$U$10,Data1!$U$11:$U$149</definedName>
+    <definedName name="A124797533A_Data">Data1!$U$11:$U$149</definedName>
+    <definedName name="A124797533A_Latest">Data1!$U$149</definedName>
+    <definedName name="A124797534C">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$149</definedName>
+    <definedName name="A124797534C_Data">Data1!$AN$11:$AN$149</definedName>
+    <definedName name="A124797534C_Latest">Data1!$AN$149</definedName>
+    <definedName name="A124797599T">Data1!$AK$1:$AK$10,Data1!$AK$131:$AK$149</definedName>
+    <definedName name="A124797599T_Data">Data1!$AK$131:$AK$149</definedName>
+    <definedName name="A124797599T_Latest">Data1!$AK$149</definedName>
+    <definedName name="A124797600R">Data1!$BD$1:$BD$10,Data1!$BD$131:$BD$149</definedName>
+    <definedName name="A124797600R_Data">Data1!$BD$131:$BD$149</definedName>
+    <definedName name="A124797600R_Latest">Data1!$BD$149</definedName>
+    <definedName name="A124797654W">Data1!$D$1:$D$10,Data1!$D$11:$D$149</definedName>
+    <definedName name="A124797654W_Data">Data1!$D$11:$D$149</definedName>
+    <definedName name="A124797654W_Latest">Data1!$D$149</definedName>
+    <definedName name="A124797748K">Data1!$Q$1:$Q$10,Data1!$Q$131:$Q$149</definedName>
+    <definedName name="A124797748K_Data">Data1!$Q$131:$Q$149</definedName>
+    <definedName name="A124797748K_Latest">Data1!$Q$149</definedName>
+    <definedName name="A124797831X">Data1!$AJ$1:$AJ$10,Data1!$AJ$131:$AJ$149</definedName>
+    <definedName name="A124797831X_Data">Data1!$AJ$131:$AJ$149</definedName>
+    <definedName name="A124797831X_Latest">Data1!$AJ$149</definedName>
+    <definedName name="A124797832A">Data1!$BC$1:$BC$10,Data1!$BC$131:$BC$149</definedName>
+    <definedName name="A124797832A_Data">Data1!$BC$131:$BC$149</definedName>
+    <definedName name="A124797832A_Latest">Data1!$BC$149</definedName>
+    <definedName name="A124797883A">Data1!$R$1:$R$10,Data1!$R$131:$R$149</definedName>
+    <definedName name="A124797883A_Data">Data1!$R$131:$R$149</definedName>
+    <definedName name="A124797883A_Latest">Data1!$R$149</definedName>
+    <definedName name="A124798313T">Data1!$W$1:$W$10,Data1!$W$11:$W$149</definedName>
+    <definedName name="A124798313T_Data">Data1!$W$11:$W$149</definedName>
+    <definedName name="A124798313T_Latest">Data1!$W$149</definedName>
+    <definedName name="A124798314V">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$149</definedName>
+    <definedName name="A124798314V_Data">Data1!$AP$11:$AP$149</definedName>
+    <definedName name="A124798314V_Latest">Data1!$AP$149</definedName>
+    <definedName name="A124798403W">Data1!$P$1:$P$10,Data1!$P$11:$P$149</definedName>
+    <definedName name="A124798403W_Data">Data1!$P$11:$P$149</definedName>
+    <definedName name="A124798403W_Latest">Data1!$P$149</definedName>
+    <definedName name="A124798492K">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$149</definedName>
+    <definedName name="A124798492K_Data">Data1!$AI$11:$AI$149</definedName>
+    <definedName name="A124798492K_Latest">Data1!$AI$149</definedName>
+    <definedName name="A124798493L">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$149</definedName>
+    <definedName name="A124798493L_Data">Data1!$BB$11:$BB$149</definedName>
+    <definedName name="A124798493L_Latest">Data1!$BB$149</definedName>
+    <definedName name="A124798562F">Data1!$S$1:$S$10,Data1!$S$11:$S$149</definedName>
+    <definedName name="A124798562F_Data">Data1!$S$11:$S$149</definedName>
+    <definedName name="A124798562F_Latest">Data1!$S$149</definedName>
+    <definedName name="A124798686J">Data1!$J$1:$J$10,Data1!$J$11:$J$149</definedName>
+    <definedName name="A124798686J_Data">Data1!$J$11:$J$149</definedName>
+    <definedName name="A124798686J_Latest">Data1!$J$149</definedName>
+    <definedName name="A124798775K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$149</definedName>
+    <definedName name="A124798775K_Data">Data1!$AC$11:$AC$149</definedName>
+    <definedName name="A124798775K_Latest">Data1!$AC$149</definedName>
+    <definedName name="A124798776L">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$149</definedName>
+    <definedName name="A124798776L_Data">Data1!$AV$11:$AV$149</definedName>
+    <definedName name="A124798776L_Latest">Data1!$AV$149</definedName>
+    <definedName name="A124798844C">Data1!$T$1:$T$10,Data1!$T$11:$T$149</definedName>
+    <definedName name="A124798844C_Data">Data1!$T$11:$T$149</definedName>
+    <definedName name="A124798844C_Latest">Data1!$T$149</definedName>
+    <definedName name="A124798933F">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$149</definedName>
+    <definedName name="A124798933F_Data">Data1!$AM$11:$AM$149</definedName>
+    <definedName name="A124798933F_Latest">Data1!$AM$149</definedName>
+    <definedName name="A124798934J">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$149</definedName>
+    <definedName name="A124798934J_Data">Data1!$BF$11:$BF$149</definedName>
+    <definedName name="A124798934J_Latest">Data1!$BF$149</definedName>
+    <definedName name="A124799038C">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$149</definedName>
+    <definedName name="A124799038C_Data">Data1!$AL$11:$AL$149</definedName>
+    <definedName name="A124799038C_Latest">Data1!$AL$149</definedName>
+    <definedName name="A124799039F">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$149</definedName>
+    <definedName name="A124799039F_Data">Data1!$BE$11:$BE$149</definedName>
+    <definedName name="A124799039F_Latest">Data1!$BE$149</definedName>
+    <definedName name="A3511687L">Data1!$C$1:$C$10,Data1!$C$11:$C$149</definedName>
+    <definedName name="A3511687L_Data">Data1!$C$11:$C$149</definedName>
+    <definedName name="A3511687L_Latest">Data1!$C$149</definedName>
+    <definedName name="A3511690A">Data1!$E$1:$E$10,Data1!$E$11:$E$149</definedName>
+    <definedName name="A3511690A_Data">Data1!$E$11:$E$149</definedName>
+    <definedName name="A3511690A_Latest">Data1!$E$149</definedName>
+    <definedName name="A3511693J">Data1!$F$1:$F$10,Data1!$F$11:$F$149</definedName>
+    <definedName name="A3511693J_Data">Data1!$F$11:$F$149</definedName>
+    <definedName name="A3511693J_Latest">Data1!$F$149</definedName>
+    <definedName name="A3511696R">Data1!$G$1:$G$10,Data1!$G$11:$G$149</definedName>
+    <definedName name="A3511696R_Data">Data1!$G$11:$G$149</definedName>
+    <definedName name="A3511696R_Latest">Data1!$G$149</definedName>
+    <definedName name="A3511699W">Data1!$H$1:$H$10,Data1!$H$11:$H$149</definedName>
+    <definedName name="A3511699W_Data">Data1!$H$11:$H$149</definedName>
+    <definedName name="A3511699W_Latest">Data1!$H$149</definedName>
+    <definedName name="A3511702X">Data1!$I$1:$I$10,Data1!$I$11:$I$149</definedName>
+    <definedName name="A3511702X_Data">Data1!$I$11:$I$149</definedName>
+    <definedName name="A3511702X_Latest">Data1!$I$149</definedName>
+    <definedName name="A3511705F">Data1!$K$1:$K$10,Data1!$K$11:$K$149</definedName>
+    <definedName name="A3511705F_Data">Data1!$K$11:$K$149</definedName>
+    <definedName name="A3511705F_Latest">Data1!$K$149</definedName>
+    <definedName name="A3511708L">Data1!$L$1:$L$10,Data1!$L$11:$L$149</definedName>
+    <definedName name="A3511708L_Data">Data1!$L$11:$L$149</definedName>
+    <definedName name="A3511708L_Latest">Data1!$L$149</definedName>
+    <definedName name="A3511711A">Data1!$M$1:$M$10,Data1!$M$11:$M$149</definedName>
+    <definedName name="A3511711A_Data">Data1!$M$11:$M$149</definedName>
+    <definedName name="A3511711A_Latest">Data1!$M$149</definedName>
+    <definedName name="A3511714J">Data1!$N$1:$N$10,Data1!$N$11:$N$149</definedName>
+    <definedName name="A3511714J_Data">Data1!$N$11:$N$149</definedName>
+    <definedName name="A3511714J_Latest">Data1!$N$149</definedName>
+    <definedName name="A3511717R">Data1!$O$1:$O$10,Data1!$O$11:$O$149</definedName>
+    <definedName name="A3511717R_Data">Data1!$O$11:$O$149</definedName>
+    <definedName name="A3511717R_Latest">Data1!$O$149</definedName>
+    <definedName name="A3511729X">Data1!$V$1:$V$10,Data1!$V$11:$V$149</definedName>
+    <definedName name="A3511729X_Data">Data1!$V$11:$V$149</definedName>
+    <definedName name="A3511729X_Latest">Data1!$V$149</definedName>
+    <definedName name="A3511732L">Data1!$X$1:$X$10,Data1!$X$11:$X$149</definedName>
+    <definedName name="A3511732L_Data">Data1!$X$11:$X$149</definedName>
+    <definedName name="A3511732L_Latest">Data1!$X$149</definedName>
+    <definedName name="A3511735V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$149</definedName>
+    <definedName name="A3511735V_Data">Data1!$Y$11:$Y$149</definedName>
+    <definedName name="A3511735V_Latest">Data1!$Y$149</definedName>
+    <definedName name="A3511738A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$149</definedName>
+    <definedName name="A3511738A_Data">Data1!$Z$11:$Z$149</definedName>
+    <definedName name="A3511738A_Latest">Data1!$Z$149</definedName>
+    <definedName name="A3511741R">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$149</definedName>
+    <definedName name="A3511741R_Data">Data1!$AA$11:$AA$149</definedName>
+    <definedName name="A3511741R_Latest">Data1!$AA$149</definedName>
+    <definedName name="A3511744W">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$149</definedName>
+    <definedName name="A3511744W_Data">Data1!$AB$11:$AB$149</definedName>
+    <definedName name="A3511744W_Latest">Data1!$AB$149</definedName>
+    <definedName name="A3511747C">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$149</definedName>
+    <definedName name="A3511747C_Data">Data1!$AD$11:$AD$149</definedName>
+    <definedName name="A3511747C_Latest">Data1!$AD$149</definedName>
+    <definedName name="A3511750T">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$149</definedName>
+    <definedName name="A3511750T_Data">Data1!$AE$11:$AE$149</definedName>
+    <definedName name="A3511750T_Latest">Data1!$AE$149</definedName>
+    <definedName name="A3511753X">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$149</definedName>
+    <definedName name="A3511753X_Data">Data1!$AF$11:$AF$149</definedName>
+    <definedName name="A3511753X_Latest">Data1!$AF$149</definedName>
+    <definedName name="A3511756F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$149</definedName>
+    <definedName name="A3511756F_Data">Data1!$AG$11:$AG$149</definedName>
+    <definedName name="A3511756F_Latest">Data1!$AG$149</definedName>
+    <definedName name="A3511759L">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$149</definedName>
+    <definedName name="A3511759L_Data">Data1!$AH$11:$AH$149</definedName>
+    <definedName name="A3511759L_Latest">Data1!$AH$149</definedName>
+    <definedName name="A3515833W">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$149</definedName>
+    <definedName name="A3515833W_Data">Data1!$AO$11:$AO$149</definedName>
+    <definedName name="A3515833W_Latest">Data1!$AO$149</definedName>
+    <definedName name="A3515836C">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$149</definedName>
+    <definedName name="A3515836C_Data">Data1!$AQ$11:$AQ$149</definedName>
+    <definedName name="A3515836C_Latest">Data1!$AQ$149</definedName>
+    <definedName name="A3515839K">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$149</definedName>
+    <definedName name="A3515839K_Data">Data1!$AR$11:$AR$149</definedName>
+    <definedName name="A3515839K_Latest">Data1!$AR$149</definedName>
+    <definedName name="A3515842X">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$149</definedName>
+    <definedName name="A3515842X_Data">Data1!$AS$11:$AS$149</definedName>
+    <definedName name="A3515842X_Latest">Data1!$AS$149</definedName>
+    <definedName name="A3515845F">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$149</definedName>
+    <definedName name="A3515845F_Data">Data1!$AT$11:$AT$149</definedName>
+    <definedName name="A3515845F_Latest">Data1!$AT$149</definedName>
+    <definedName name="A3515848L">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$149</definedName>
+    <definedName name="A3515848L_Data">Data1!$AU$11:$AU$149</definedName>
+    <definedName name="A3515848L_Latest">Data1!$AU$149</definedName>
+    <definedName name="A3515851A">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$149</definedName>
+    <definedName name="A3515851A_Data">Data1!$AW$11:$AW$149</definedName>
+    <definedName name="A3515851A_Latest">Data1!$AW$149</definedName>
+    <definedName name="A3515854J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$149</definedName>
+    <definedName name="A3515854J_Data">Data1!$AX$11:$AX$149</definedName>
+    <definedName name="A3515854J_Latest">Data1!$AX$149</definedName>
+    <definedName name="A3515857R">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$149</definedName>
+    <definedName name="A3515857R_Data">Data1!$AY$11:$AY$149</definedName>
+    <definedName name="A3515857R_Latest">Data1!$AY$149</definedName>
+    <definedName name="A3515860C">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$149</definedName>
+    <definedName name="A3515860C_Data">Data1!$AZ$11:$AZ$149</definedName>
+    <definedName name="A3515860C_Latest">Data1!$AZ$149</definedName>
+    <definedName name="A3515863K">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$149</definedName>
+    <definedName name="A3515863K_Data">Data1!$BA$11:$BA$149</definedName>
+    <definedName name="A3515863K_Latest">Data1!$BA$149</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$149</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$149</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1352,10 +1352,10 @@
         <v>32021</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>66</v>
@@ -1384,10 +1384,10 @@
         <v>32021</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>66</v>
@@ -1416,10 +1416,10 @@
         <v>32021</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>66</v>
@@ -1448,10 +1448,10 @@
         <v>32021</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>66</v>
@@ -1480,10 +1480,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>66</v>
@@ -1512,10 +1512,10 @@
         <v>32021</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>66</v>
@@ -1544,10 +1544,10 @@
         <v>32021</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>66</v>
@@ -1576,10 +1576,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>66</v>
@@ -1608,10 +1608,10 @@
         <v>32021</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>66</v>
@@ -1640,10 +1640,10 @@
         <v>32021</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>66</v>
@@ -1672,10 +1672,10 @@
         <v>32021</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>66</v>
@@ -1704,10 +1704,10 @@
         <v>32021</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>66</v>
@@ -1736,10 +1736,10 @@
         <v>32021</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>66</v>
@@ -1768,10 +1768,10 @@
         <v>32021</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>66</v>
@@ -1800,10 +1800,10 @@
         <v>32021</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>66</v>
@@ -1832,10 +1832,10 @@
         <v>32021</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>66</v>
@@ -1864,10 +1864,10 @@
         <v>32021</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>66</v>
@@ -1896,10 +1896,10 @@
         <v>32021</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>66</v>
@@ -1928,10 +1928,10 @@
         <v>32021</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>66</v>
@@ -1960,10 +1960,10 @@
         <v>32021</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>66</v>
@@ -1992,10 +1992,10 @@
         <v>32021</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>66</v>
@@ -2024,10 +2024,10 @@
         <v>32021</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>66</v>
@@ -2056,10 +2056,10 @@
         <v>32021</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>66</v>
@@ -2088,10 +2088,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>66</v>
@@ -2120,10 +2120,10 @@
         <v>32021</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>66</v>
@@ -2152,10 +2152,10 @@
         <v>32021</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>66</v>
@@ -2184,10 +2184,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>66</v>
@@ -2216,10 +2216,10 @@
         <v>32021</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>66</v>
@@ -2248,10 +2248,10 @@
         <v>32021</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>66</v>
@@ -2280,10 +2280,10 @@
         <v>32021</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>66</v>
@@ -2312,10 +2312,10 @@
         <v>32021</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>66</v>
@@ -2344,10 +2344,10 @@
         <v>32021</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>66</v>
@@ -2376,10 +2376,10 @@
         <v>32021</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>66</v>
@@ -2408,10 +2408,10 @@
         <v>32021</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>66</v>
@@ -2440,10 +2440,10 @@
         <v>32021</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>66</v>
@@ -2472,10 +2472,10 @@
         <v>32021</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>66</v>
@@ -2504,10 +2504,10 @@
         <v>32021</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>66</v>
@@ -2536,10 +2536,10 @@
         <v>32021</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>66</v>
@@ -2568,10 +2568,10 @@
         <v>32021</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>66</v>
@@ -2600,10 +2600,10 @@
         <v>32021</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>66</v>
@@ -2632,10 +2632,10 @@
         <v>32021</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>66</v>
@@ -2664,10 +2664,10 @@
         <v>32021</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>66</v>
@@ -2696,10 +2696,10 @@
         <v>42979</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>66</v>
@@ -2728,10 +2728,10 @@
         <v>32021</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>66</v>
@@ -2760,10 +2760,10 @@
         <v>32021</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>66</v>
@@ -2792,10 +2792,10 @@
         <v>42979</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>66</v>
@@ -2824,10 +2824,10 @@
         <v>32021</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>66</v>
@@ -2856,10 +2856,10 @@
         <v>32021</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>66</v>
@@ -2888,10 +2888,10 @@
         <v>32021</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>66</v>
@@ -2920,10 +2920,10 @@
         <v>32021</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>66</v>
@@ -2952,10 +2952,10 @@
         <v>32021</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>66</v>
@@ -2984,10 +2984,10 @@
         <v>32021</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>66</v>
@@ -3016,10 +3016,10 @@
         <v>32021</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>66</v>
@@ -3048,10 +3048,10 @@
         <v>32021</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>66</v>
@@ -3080,10 +3080,10 @@
         <v>32021</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>66</v>
@@ -3112,10 +3112,10 @@
         <v>32021</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>66</v>
@@ -3144,10 +3144,10 @@
         <v>32021</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>66</v>
@@ -3242,7 +3242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF148"/>
+  <dimension ref="A1:BF149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -4490,175 +4490,175 @@
         <v>63</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
@@ -4666,175 +4666,175 @@
         <v>64</v>
       </c>
       <c r="B9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AE9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AR9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AT9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AU9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AV9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AW9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AY9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AZ9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BA9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BB9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BE9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BF9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -5045,7 +5045,7 @@
         <v>501</v>
       </c>
       <c r="K11" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L11" s="8">
         <v>87</v>
@@ -5176,7 +5176,7 @@
         <v>32112</v>
       </c>
       <c r="B12" s="8">
-        <v>8108</v>
+        <v>8107</v>
       </c>
       <c r="C12" s="8">
         <v>920</v>
@@ -5334,7 +5334,7 @@
         <v>32203</v>
       </c>
       <c r="B13" s="8">
-        <v>6178</v>
+        <v>6177</v>
       </c>
       <c r="C13" s="8">
         <v>906</v>
@@ -5516,7 +5516,7 @@
         <v>134</v>
       </c>
       <c r="J14" s="8">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K14" s="8">
         <v>149</v>
@@ -5594,7 +5594,7 @@
         <v>41</v>
       </c>
       <c r="AN14" s="8">
-        <v>8767</v>
+        <v>8766</v>
       </c>
       <c r="AO14" s="8">
         <v>1858</v>
@@ -5966,7 +5966,7 @@
         <v>32568</v>
       </c>
       <c r="B17" s="8">
-        <v>7110</v>
+        <v>7109</v>
       </c>
       <c r="C17" s="8">
         <v>898</v>
@@ -6160,7 +6160,7 @@
         <v>921</v>
       </c>
       <c r="N18" s="8">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="O18" s="8">
         <v>121</v>
@@ -6300,7 +6300,7 @@
         <v>337</v>
       </c>
       <c r="H19" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I19" s="8">
         <v>206</v>
@@ -6446,7 +6446,7 @@
         <v>986</v>
       </c>
       <c r="D20" s="8">
-        <v>8161</v>
+        <v>8160</v>
       </c>
       <c r="E20" s="8">
         <v>726</v>
@@ -6604,7 +6604,7 @@
         <v>848</v>
       </c>
       <c r="D21" s="8">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="E21" s="8">
         <v>609</v>
@@ -6762,7 +6762,7 @@
         <v>908</v>
       </c>
       <c r="D22" s="8">
-        <v>6648</v>
+        <v>6647</v>
       </c>
       <c r="E22" s="8">
         <v>693</v>
@@ -7236,7 +7236,7 @@
         <v>1065</v>
       </c>
       <c r="D25" s="8">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="E25" s="8">
         <v>472</v>
@@ -7424,7 +7424,7 @@
         <v>424</v>
       </c>
       <c r="N26" s="8">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="O26" s="8">
         <v>87</v>
@@ -8202,7 +8202,7 @@
         <v>271</v>
       </c>
       <c r="J31" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K31" s="8">
         <v>85</v>
@@ -8280,7 +8280,7 @@
         <v>20</v>
       </c>
       <c r="AN31" s="8">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="AO31" s="8">
         <v>2186</v>
@@ -8369,13 +8369,13 @@
         <v>116</v>
       </c>
       <c r="M32" s="8">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N32" s="8">
         <v>977</v>
       </c>
       <c r="O32" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P32" s="8">
         <v>18</v>
@@ -9308,7 +9308,7 @@
         <v>213</v>
       </c>
       <c r="J38" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K38" s="8">
         <v>179</v>
@@ -9442,7 +9442,7 @@
         <v>34578</v>
       </c>
       <c r="B39" s="8">
-        <v>4816</v>
+        <v>4815</v>
       </c>
       <c r="C39" s="8">
         <v>1370</v>
@@ -10024,7 +10024,7 @@
         <v>2776</v>
       </c>
       <c r="AP42" s="8">
-        <v>7411</v>
+        <v>7410</v>
       </c>
       <c r="AQ42" s="8">
         <v>3230</v>
@@ -10390,7 +10390,7 @@
         <v>35125</v>
       </c>
       <c r="B45" s="8">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="C45" s="8">
         <v>1517</v>
@@ -10516,7 +10516,7 @@
         <v>315</v>
       </c>
       <c r="AV45" s="8">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW45" s="8">
         <v>947</v>
@@ -10548,7 +10548,7 @@
         <v>35217</v>
       </c>
       <c r="B46" s="8">
-        <v>9043</v>
+        <v>9042</v>
       </c>
       <c r="C46" s="8">
         <v>2116</v>
@@ -10566,7 +10566,7 @@
         <v>146</v>
       </c>
       <c r="H46" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I46" s="8">
         <v>228</v>
@@ -10814,10 +10814,10 @@
         <v>3306</v>
       </c>
       <c r="AP47" s="8">
-        <v>8475</v>
+        <v>8474</v>
       </c>
       <c r="AQ47" s="8">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AR47" s="8">
         <v>179</v>
@@ -10870,7 +10870,7 @@
         <v>2095</v>
       </c>
       <c r="D48" s="8">
-        <v>7487</v>
+        <v>7486</v>
       </c>
       <c r="E48" s="8">
         <v>792</v>
@@ -11037,7 +11037,7 @@
         <v>98</v>
       </c>
       <c r="G49" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" s="8">
         <v>216</v>
@@ -11306,7 +11306,7 @@
         <v>420</v>
       </c>
       <c r="AV50" s="8">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AW50" s="8">
         <v>1267</v>
@@ -11914,7 +11914,7 @@
         <v>75</v>
       </c>
       <c r="AN54" s="8">
-        <v>14571</v>
+        <v>14570</v>
       </c>
       <c r="AO54" s="8">
         <v>4818</v>
@@ -12161,7 +12161,7 @@
         <v>123</v>
       </c>
       <c r="M56" s="8">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N56" s="8">
         <v>1507</v>
@@ -12424,7 +12424,7 @@
         <v>267</v>
       </c>
       <c r="AZ57" s="8">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="BA57" s="8">
         <v>306</v>
@@ -12567,10 +12567,10 @@
         <v>540</v>
       </c>
       <c r="AU58" s="8">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AV58" s="8">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AW58" s="8">
         <v>829</v>
@@ -12710,7 +12710,7 @@
         <v>3006</v>
       </c>
       <c r="AP59" s="8">
-        <v>10290</v>
+        <v>10289</v>
       </c>
       <c r="AQ59" s="8">
         <v>2754</v>
@@ -12784,7 +12784,7 @@
         <v>373</v>
       </c>
       <c r="J60" s="8">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K60" s="8">
         <v>432</v>
@@ -13270,7 +13270,7 @@
         <v>734</v>
       </c>
       <c r="N63" s="8">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="O63" s="8">
         <v>84</v>
@@ -13500,7 +13500,7 @@
         <v>2098</v>
       </c>
       <c r="AP64" s="8">
-        <v>11342</v>
+        <v>11341</v>
       </c>
       <c r="AQ64" s="8">
         <v>2633</v>
@@ -13586,7 +13586,7 @@
         <v>278</v>
       </c>
       <c r="N65" s="8">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="O65" s="8">
         <v>52</v>
@@ -13816,7 +13816,7 @@
         <v>2600</v>
       </c>
       <c r="AP66" s="8">
-        <v>10826</v>
+        <v>10825</v>
       </c>
       <c r="AQ66" s="8">
         <v>2514</v>
@@ -13998,7 +13998,7 @@
         <v>1114</v>
       </c>
       <c r="AX67" s="8">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AY67" s="8">
         <v>402</v>
@@ -14320,7 +14320,7 @@
         <v>292</v>
       </c>
       <c r="AZ69" s="8">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="BA69" s="8">
         <v>384</v>
@@ -14758,7 +14758,7 @@
         <v>98</v>
       </c>
       <c r="AN72" s="8">
-        <v>18106</v>
+        <v>18105</v>
       </c>
       <c r="AO72" s="8">
         <v>3613</v>
@@ -14838,7 +14838,7 @@
         <v>182</v>
       </c>
       <c r="J73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K73" s="8">
         <v>691</v>
@@ -15622,7 +15622,7 @@
         <v>46</v>
       </c>
       <c r="H78" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I78" s="8">
         <v>332</v>
@@ -15870,7 +15870,7 @@
         <v>3523</v>
       </c>
       <c r="AP79" s="8">
-        <v>13777</v>
+        <v>13776</v>
       </c>
       <c r="AQ79" s="8">
         <v>2985</v>
@@ -15894,7 +15894,7 @@
         <v>2279</v>
       </c>
       <c r="AX79" s="8">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AY79" s="8">
         <v>517</v>
@@ -16028,7 +16028,7 @@
         <v>3834</v>
       </c>
       <c r="AP80" s="8">
-        <v>17025</v>
+        <v>17024</v>
       </c>
       <c r="AQ80" s="8">
         <v>3639</v>
@@ -16102,10 +16102,10 @@
         <v>209</v>
       </c>
       <c r="J81" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K81" s="8">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L81" s="8">
         <v>356</v>
@@ -16242,7 +16242,7 @@
         <v>2708</v>
       </c>
       <c r="D82" s="8">
-        <v>6896</v>
+        <v>6895</v>
       </c>
       <c r="E82" s="8">
         <v>1501</v>
@@ -16672,13 +16672,13 @@
         <v>852</v>
       </c>
       <c r="AT84" s="8">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AU84" s="8">
         <v>1049</v>
       </c>
       <c r="AV84" s="8">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AW84" s="8">
         <v>3998</v>
@@ -16746,7 +16746,7 @@
         <v>141</v>
       </c>
       <c r="N85" s="8">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O85" s="8">
         <v>34</v>
@@ -16877,7 +16877,7 @@
         <v>7457</v>
       </c>
       <c r="E86" s="8">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="F86" s="8">
         <v>533</v>
@@ -17050,7 +17050,7 @@
         <v>308</v>
       </c>
       <c r="J87" s="8">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K87" s="8">
         <v>1021</v>
@@ -17292,7 +17292,7 @@
         <v>8013</v>
       </c>
       <c r="AP88" s="8">
-        <v>18431</v>
+        <v>18430</v>
       </c>
       <c r="AQ88" s="8">
         <v>4038</v>
@@ -17825,7 +17825,7 @@
         <v>9796</v>
       </c>
       <c r="E92" s="8">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F92" s="8">
         <v>949</v>
@@ -17942,7 +17942,7 @@
         <v>1281</v>
       </c>
       <c r="AV92" s="8">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AW92" s="8">
         <v>2633</v>
@@ -18150,7 +18150,7 @@
         <v>83</v>
       </c>
       <c r="H94" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I94" s="8">
         <v>261</v>
@@ -18240,10 +18240,10 @@
         <v>10798</v>
       </c>
       <c r="AP94" s="8">
-        <v>22979</v>
+        <v>22978</v>
       </c>
       <c r="AQ94" s="8">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="AR94" s="8">
         <v>1194</v>
@@ -18258,7 +18258,7 @@
         <v>1357</v>
       </c>
       <c r="AV94" s="8">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AW94" s="8">
         <v>3520</v>
@@ -18296,7 +18296,7 @@
         <v>7480</v>
       </c>
       <c r="D95" s="8">
-        <v>8489</v>
+        <v>8488</v>
       </c>
       <c r="E95" s="8">
         <v>1148</v>
@@ -18311,7 +18311,7 @@
         <v>134</v>
       </c>
       <c r="I95" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J95" s="8">
         <v>490</v>
@@ -18448,7 +18448,7 @@
         <v>39783</v>
       </c>
       <c r="B96" s="8">
-        <v>20737</v>
+        <v>20736</v>
       </c>
       <c r="C96" s="8">
         <v>9483</v>
@@ -18720,7 +18720,7 @@
         <v>3145</v>
       </c>
       <c r="AR97" s="8">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="AS97" s="8">
         <v>1073</v>
@@ -18732,7 +18732,7 @@
         <v>929</v>
       </c>
       <c r="AV97" s="8">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AW97" s="8">
         <v>3315</v>
@@ -18770,7 +18770,7 @@
         <v>7965</v>
       </c>
       <c r="D98" s="8">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="E98" s="8">
         <v>1279</v>
@@ -18866,7 +18866,7 @@
         <v>387</v>
       </c>
       <c r="AN98" s="8">
-        <v>35277</v>
+        <v>35276</v>
       </c>
       <c r="AO98" s="8">
         <v>10596</v>
@@ -18934,7 +18934,7 @@
         <v>1122</v>
       </c>
       <c r="F99" s="8">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G99" s="8">
         <v>57</v>
@@ -18952,7 +18952,7 @@
         <v>1226</v>
       </c>
       <c r="L99" s="8">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M99" s="8">
         <v>126</v>
@@ -19110,10 +19110,10 @@
         <v>1198</v>
       </c>
       <c r="L100" s="8">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M100" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N100" s="8">
         <v>1493</v>
@@ -19188,10 +19188,10 @@
         <v>10797</v>
       </c>
       <c r="AP100" s="8">
-        <v>24800</v>
+        <v>24799</v>
       </c>
       <c r="AQ100" s="8">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="AR100" s="8">
         <v>1743</v>
@@ -19218,7 +19218,7 @@
         <v>635</v>
       </c>
       <c r="AZ100" s="8">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="BA100" s="8">
         <v>1080</v>
@@ -19343,7 +19343,7 @@
         <v>28524</v>
       </c>
       <c r="AO101" s="8">
-        <v>9362</v>
+        <v>9363</v>
       </c>
       <c r="AP101" s="8">
         <v>18981</v>
@@ -19823,7 +19823,7 @@
         <v>24114</v>
       </c>
       <c r="AQ104" s="8">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="AR104" s="8">
         <v>1905</v>
@@ -20297,7 +20297,7 @@
         <v>22714</v>
       </c>
       <c r="AQ107" s="8">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="AR107" s="8">
         <v>1372</v>
@@ -20347,7 +20347,7 @@
         <v>29825</v>
       </c>
       <c r="C108" s="8">
-        <v>18855</v>
+        <v>18856</v>
       </c>
       <c r="D108" s="8">
         <v>10780</v>
@@ -20452,7 +20452,7 @@
         <v>23118</v>
       </c>
       <c r="AP108" s="8">
-        <v>25040</v>
+        <v>25039</v>
       </c>
       <c r="AQ108" s="8">
         <v>4304</v>
@@ -20482,7 +20482,7 @@
         <v>677</v>
       </c>
       <c r="AZ108" s="8">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="BA108" s="8">
         <v>968</v>
@@ -20699,7 +20699,7 @@
         <v>2087</v>
       </c>
       <c r="O110" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P110" s="8">
         <v>62</v>
@@ -20768,7 +20768,7 @@
         <v>28953</v>
       </c>
       <c r="AP110" s="8">
-        <v>23103</v>
+        <v>23102</v>
       </c>
       <c r="AQ110" s="8">
         <v>3835</v>
@@ -20821,7 +20821,7 @@
         <v>31355</v>
       </c>
       <c r="C111" s="8">
-        <v>22254</v>
+        <v>22255</v>
       </c>
       <c r="D111" s="8">
         <v>8852</v>
@@ -20979,7 +20979,7 @@
         <v>33168</v>
       </c>
       <c r="C112" s="8">
-        <v>24353</v>
+        <v>24354</v>
       </c>
       <c r="D112" s="8">
         <v>8533</v>
@@ -21000,10 +21000,10 @@
         <v>275</v>
       </c>
       <c r="J112" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K112" s="8">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L112" s="8">
         <v>954</v>
@@ -21087,7 +21087,7 @@
         <v>22235</v>
       </c>
       <c r="AQ112" s="8">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="AR112" s="8">
         <v>1675</v>
@@ -21292,13 +21292,13 @@
         <v>41426</v>
       </c>
       <c r="B114" s="8">
-        <v>31691</v>
+        <v>31690</v>
       </c>
       <c r="C114" s="8">
         <v>23345</v>
       </c>
       <c r="D114" s="8">
-        <v>8074</v>
+        <v>8073</v>
       </c>
       <c r="E114" s="8">
         <v>810</v>
@@ -21394,7 +21394,7 @@
         <v>349</v>
       </c>
       <c r="AN114" s="8">
-        <v>48731</v>
+        <v>48730</v>
       </c>
       <c r="AO114" s="8">
         <v>27368</v>
@@ -21790,7 +21790,7 @@
         <v>350</v>
       </c>
       <c r="J117" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K117" s="8">
         <v>960</v>
@@ -21930,7 +21930,7 @@
         <v>21945</v>
       </c>
       <c r="D118" s="8">
-        <v>9638</v>
+        <v>9637</v>
       </c>
       <c r="E118" s="8">
         <v>749</v>
@@ -22032,7 +22032,7 @@
         <v>24655</v>
       </c>
       <c r="AP118" s="8">
-        <v>22591</v>
+        <v>22590</v>
       </c>
       <c r="AQ118" s="8">
         <v>2608</v>
@@ -22056,7 +22056,7 @@
         <v>3378</v>
       </c>
       <c r="AX118" s="8">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="AY118" s="8">
         <v>868</v>
@@ -22208,13 +22208,13 @@
         <v>1544</v>
       </c>
       <c r="AV119" s="8">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AW119" s="8">
         <v>4194</v>
       </c>
       <c r="AX119" s="8">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AY119" s="8">
         <v>923</v>
@@ -22240,7 +22240,7 @@
         <v>41974</v>
       </c>
       <c r="B120" s="8">
-        <v>31576</v>
+        <v>31575</v>
       </c>
       <c r="C120" s="8">
         <v>20100</v>
@@ -22267,10 +22267,10 @@
         <v>364</v>
       </c>
       <c r="K120" s="8">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="L120" s="8">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="M120" s="8">
         <v>286</v>
@@ -22404,7 +22404,7 @@
         <v>16275</v>
       </c>
       <c r="D121" s="8">
-        <v>7957</v>
+        <v>7956</v>
       </c>
       <c r="E121" s="8">
         <v>482</v>
@@ -22521,7 +22521,7 @@
         <v>639</v>
       </c>
       <c r="AU121" s="8">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AV121" s="8">
         <v>764</v>
@@ -22694,7 +22694,7 @@
         <v>940</v>
       </c>
       <c r="AZ122" s="8">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="BA122" s="8">
         <v>1144</v>
@@ -22852,7 +22852,7 @@
         <v>913</v>
       </c>
       <c r="AZ123" s="8">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="BA123" s="8">
         <v>671</v>
@@ -23159,7 +23159,7 @@
         <v>640</v>
       </c>
       <c r="AW125" s="8">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="AX125" s="8">
         <v>1781</v>
@@ -23335,7 +23335,7 @@
         <v>430</v>
       </c>
       <c r="BE126" s="8">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BF126" s="8">
         <v>639</v>
@@ -23376,7 +23376,7 @@
         <v>903</v>
       </c>
       <c r="L127" s="8">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="M127" s="8">
         <v>166</v>
@@ -23448,7 +23448,7 @@
         <v>312</v>
       </c>
       <c r="AN127" s="8">
-        <v>31936</v>
+        <v>31935</v>
       </c>
       <c r="AO127" s="8">
         <v>10819</v>
@@ -23689,7 +23689,7 @@
         <v>288</v>
       </c>
       <c r="K129" s="8">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L129" s="8">
         <v>1670</v>
@@ -23764,7 +23764,7 @@
         <v>297</v>
       </c>
       <c r="AN129" s="8">
-        <v>28776</v>
+        <v>28775</v>
       </c>
       <c r="AO129" s="8">
         <v>9192</v>
@@ -23800,7 +23800,7 @@
         <v>811</v>
       </c>
       <c r="AZ129" s="8">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="BA129" s="8">
         <v>808</v>
@@ -23826,7 +23826,7 @@
         <v>8514</v>
       </c>
       <c r="D130" s="8">
-        <v>11287</v>
+        <v>11286</v>
       </c>
       <c r="E130" s="8">
         <v>799</v>
@@ -23925,7 +23925,7 @@
         <v>35284</v>
       </c>
       <c r="AO130" s="8">
-        <v>10144</v>
+        <v>10145</v>
       </c>
       <c r="AP130" s="8">
         <v>25129</v>
@@ -24131,7 +24131,7 @@
         <v>3296</v>
       </c>
       <c r="BA131" s="8">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="BB131" s="8">
         <v>291</v>
@@ -24154,7 +24154,7 @@
         <v>43070</v>
       </c>
       <c r="B132" s="8">
-        <v>21185</v>
+        <v>21184</v>
       </c>
       <c r="C132" s="8">
         <v>8066</v>
@@ -24307,7 +24307,7 @@
         <v>3998</v>
       </c>
       <c r="BA132" s="8">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="BB132" s="8">
         <v>384</v>
@@ -24330,7 +24330,7 @@
         <v>43160</v>
       </c>
       <c r="B133" s="8">
-        <v>17173</v>
+        <v>17172</v>
       </c>
       <c r="C133" s="8">
         <v>6972</v>
@@ -24512,7 +24512,7 @@
         <v>7121</v>
       </c>
       <c r="D134" s="8">
-        <v>12550</v>
+        <v>12549</v>
       </c>
       <c r="E134" s="8">
         <v>664</v>
@@ -24536,7 +24536,7 @@
         <v>1510</v>
       </c>
       <c r="L134" s="8">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="M134" s="8">
         <v>249</v>
@@ -24650,7 +24650,7 @@
         <v>3595</v>
       </c>
       <c r="AX134" s="8">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="AY134" s="8">
         <v>1053</v>
@@ -24682,19 +24682,19 @@
         <v>43344</v>
       </c>
       <c r="B135" s="8">
-        <v>18118</v>
+        <v>18116</v>
       </c>
       <c r="C135" s="8">
-        <v>6639</v>
+        <v>6638</v>
       </c>
       <c r="D135" s="8">
-        <v>11475</v>
+        <v>11474</v>
       </c>
       <c r="E135" s="8">
         <v>635</v>
       </c>
       <c r="F135" s="8">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G135" s="8">
         <v>69</v>
@@ -24709,7 +24709,7 @@
         <v>500</v>
       </c>
       <c r="K135" s="8">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L135" s="8">
         <v>1570</v>
@@ -24796,13 +24796,13 @@
         <v>341</v>
       </c>
       <c r="AN135" s="8">
-        <v>33103</v>
+        <v>33101</v>
       </c>
       <c r="AO135" s="8">
-        <v>8715</v>
+        <v>8714</v>
       </c>
       <c r="AP135" s="8">
-        <v>24386</v>
+        <v>24385</v>
       </c>
       <c r="AQ135" s="8">
         <v>2435</v>
@@ -24832,7 +24832,7 @@
         <v>1062</v>
       </c>
       <c r="AZ135" s="8">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="BA135" s="8">
         <v>1030</v>
@@ -24858,13 +24858,13 @@
         <v>43435</v>
       </c>
       <c r="B136" s="8">
-        <v>20663</v>
+        <v>20661</v>
       </c>
       <c r="C136" s="8">
-        <v>6743</v>
+        <v>6742</v>
       </c>
       <c r="D136" s="8">
-        <v>13925</v>
+        <v>13923</v>
       </c>
       <c r="E136" s="8">
         <v>736</v>
@@ -24885,7 +24885,7 @@
         <v>503</v>
       </c>
       <c r="K136" s="8">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L136" s="8">
         <v>1513</v>
@@ -24972,19 +24972,19 @@
         <v>434</v>
       </c>
       <c r="AN136" s="8">
-        <v>37373</v>
+        <v>37371</v>
       </c>
       <c r="AO136" s="8">
-        <v>9249</v>
+        <v>9248</v>
       </c>
       <c r="AP136" s="8">
-        <v>28122</v>
+        <v>28121</v>
       </c>
       <c r="AQ136" s="8">
         <v>2765</v>
       </c>
       <c r="AR136" s="8">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="AS136" s="8">
         <v>2017</v>
@@ -24999,7 +24999,7 @@
         <v>924</v>
       </c>
       <c r="AW136" s="8">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="AX136" s="8">
         <v>1901</v>
@@ -25008,7 +25008,7 @@
         <v>1164</v>
       </c>
       <c r="AZ136" s="8">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="BA136" s="8">
         <v>1080</v>
@@ -25034,7 +25034,7 @@
         <v>43525</v>
       </c>
       <c r="B137" s="8">
-        <v>16487</v>
+        <v>16488</v>
       </c>
       <c r="C137" s="8">
         <v>5585</v>
@@ -25088,7 +25088,7 @@
         <v>142</v>
       </c>
       <c r="T137" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U137" s="8">
         <v>13302</v>
@@ -25210,16 +25210,16 @@
         <v>43617</v>
       </c>
       <c r="B138" s="8">
-        <v>18688</v>
+        <v>18692</v>
       </c>
       <c r="C138" s="8">
-        <v>6117</v>
+        <v>6118</v>
       </c>
       <c r="D138" s="8">
-        <v>12573</v>
+        <v>12576</v>
       </c>
       <c r="E138" s="8">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F138" s="8">
         <v>2394</v>
@@ -25240,7 +25240,7 @@
         <v>1618</v>
       </c>
       <c r="L138" s="8">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="M138" s="8">
         <v>197</v>
@@ -25324,13 +25324,13 @@
         <v>508</v>
       </c>
       <c r="AN138" s="8">
-        <v>36341</v>
+        <v>36345</v>
       </c>
       <c r="AO138" s="8">
-        <v>8713</v>
+        <v>8714</v>
       </c>
       <c r="AP138" s="8">
-        <v>27626</v>
+        <v>27628</v>
       </c>
       <c r="AQ138" s="8">
         <v>2699</v>
@@ -25342,7 +25342,7 @@
         <v>1944</v>
       </c>
       <c r="AT138" s="8">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AU138" s="8">
         <v>1774</v>
@@ -25386,19 +25386,19 @@
         <v>43709</v>
       </c>
       <c r="B139" s="8">
-        <v>17659</v>
+        <v>17667</v>
       </c>
       <c r="C139" s="8">
-        <v>6126</v>
+        <v>6129</v>
       </c>
       <c r="D139" s="8">
-        <v>11533</v>
+        <v>11538</v>
       </c>
       <c r="E139" s="8">
         <v>607</v>
       </c>
       <c r="F139" s="8">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="G139" s="8">
         <v>94</v>
@@ -25413,7 +25413,7 @@
         <v>544</v>
       </c>
       <c r="K139" s="8">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="L139" s="8">
         <v>1240</v>
@@ -25422,7 +25422,7 @@
         <v>263</v>
       </c>
       <c r="N139" s="8">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="O139" s="8">
         <v>84</v>
@@ -25440,7 +25440,7 @@
         <v>164</v>
       </c>
       <c r="T139" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U139" s="8">
         <v>14531</v>
@@ -25500,19 +25500,19 @@
         <v>261</v>
       </c>
       <c r="AN139" s="8">
-        <v>32198</v>
+        <v>32206</v>
       </c>
       <c r="AO139" s="8">
-        <v>8710</v>
+        <v>8713</v>
       </c>
       <c r="AP139" s="8">
-        <v>23487</v>
+        <v>23492</v>
       </c>
       <c r="AQ139" s="8">
         <v>2500</v>
       </c>
       <c r="AR139" s="8">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="AS139" s="8">
         <v>1409</v>
@@ -25521,25 +25521,25 @@
         <v>925</v>
       </c>
       <c r="AU139" s="8">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AV139" s="8">
         <v>1066</v>
       </c>
       <c r="AW139" s="8">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="AX139" s="8">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="AY139" s="8">
         <v>1033</v>
       </c>
       <c r="AZ139" s="8">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="BA139" s="8">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BB139" s="8">
         <v>302</v>
@@ -25548,7 +25548,7 @@
         <v>769</v>
       </c>
       <c r="BD139" s="8">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="BE139" s="8">
         <v>355</v>
@@ -25562,19 +25562,19 @@
         <v>43800</v>
       </c>
       <c r="B140" s="8">
-        <v>18757</v>
+        <v>18764</v>
       </c>
       <c r="C140" s="8">
-        <v>6265</v>
+        <v>6268</v>
       </c>
       <c r="D140" s="8">
-        <v>12492</v>
+        <v>12497</v>
       </c>
       <c r="E140" s="8">
         <v>604</v>
       </c>
       <c r="F140" s="8">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="G140" s="8">
         <v>64</v>
@@ -25589,7 +25589,7 @@
         <v>390</v>
       </c>
       <c r="K140" s="8">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="L140" s="8">
         <v>1238</v>
@@ -25598,22 +25598,22 @@
         <v>200</v>
       </c>
       <c r="N140" s="8">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="O140" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P140" s="8">
         <v>50</v>
       </c>
       <c r="Q140" s="8">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="R140" s="8">
         <v>1311</v>
       </c>
       <c r="S140" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T140" s="8">
         <v>74</v>
@@ -25676,19 +25676,19 @@
         <v>288</v>
       </c>
       <c r="AN140" s="8">
-        <v>35223</v>
+        <v>35230</v>
       </c>
       <c r="AO140" s="8">
-        <v>9366</v>
+        <v>9369</v>
       </c>
       <c r="AP140" s="8">
-        <v>25857</v>
+        <v>25861</v>
       </c>
       <c r="AQ140" s="8">
         <v>2578</v>
       </c>
       <c r="AR140" s="8">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="AS140" s="8">
         <v>1493</v>
@@ -25700,19 +25700,19 @@
         <v>1781</v>
       </c>
       <c r="AV140" s="8">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AW140" s="8">
         <v>3844</v>
       </c>
       <c r="AX140" s="8">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AY140" s="8">
         <v>969</v>
       </c>
       <c r="AZ140" s="8">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="BA140" s="8">
         <v>911</v>
@@ -25724,7 +25724,7 @@
         <v>937</v>
       </c>
       <c r="BD140" s="8">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="BE140" s="8">
         <v>385</v>
@@ -25738,13 +25738,13 @@
         <v>43891</v>
       </c>
       <c r="B141" s="8">
-        <v>15265</v>
+        <v>15264</v>
       </c>
       <c r="C141" s="8">
         <v>5740</v>
       </c>
       <c r="D141" s="8">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="E141" s="8">
         <v>568</v>
@@ -25852,13 +25852,13 @@
         <v>306</v>
       </c>
       <c r="AN141" s="8">
-        <v>28041</v>
+        <v>28040</v>
       </c>
       <c r="AO141" s="8">
-        <v>7974</v>
+        <v>7973</v>
       </c>
       <c r="AP141" s="8">
-        <v>20068</v>
+        <v>20067</v>
       </c>
       <c r="AQ141" s="8">
         <v>2149</v>
@@ -25914,19 +25914,19 @@
         <v>43983</v>
       </c>
       <c r="B142" s="8">
-        <v>16831</v>
+        <v>16818</v>
       </c>
       <c r="C142" s="8">
-        <v>6338</v>
+        <v>6333</v>
       </c>
       <c r="D142" s="8">
-        <v>10492</v>
+        <v>10484</v>
       </c>
       <c r="E142" s="8">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F142" s="8">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G142" s="8">
         <v>53</v>
@@ -25938,19 +25938,19 @@
         <v>352</v>
       </c>
       <c r="J142" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K142" s="8">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L142" s="8">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="M142" s="8">
         <v>146</v>
       </c>
       <c r="N142" s="8">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O142" s="8">
         <v>143</v>
@@ -25959,10 +25959,10 @@
         <v>31</v>
       </c>
       <c r="Q142" s="8">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R142" s="8">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S142" s="8">
         <v>101</v>
@@ -26028,25 +26028,25 @@
         <v>390</v>
       </c>
       <c r="AN142" s="8">
-        <v>32223</v>
+        <v>32209</v>
       </c>
       <c r="AO142" s="8">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="AP142" s="8">
-        <v>23119</v>
+        <v>23110</v>
       </c>
       <c r="AQ142" s="8">
         <v>2511</v>
       </c>
       <c r="AR142" s="8">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="AS142" s="8">
         <v>1958</v>
       </c>
       <c r="AT142" s="8">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AU142" s="8">
         <v>1515</v>
@@ -26055,19 +26055,19 @@
         <v>526</v>
       </c>
       <c r="AW142" s="8">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="AX142" s="8">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="AY142" s="8">
         <v>864</v>
       </c>
       <c r="AZ142" s="8">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="BA142" s="8">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="BB142" s="8">
         <v>261</v>
@@ -26090,19 +26090,19 @@
         <v>44075</v>
       </c>
       <c r="B143" s="8">
-        <v>15181</v>
+        <v>15153</v>
       </c>
       <c r="C143" s="8">
-        <v>6047</v>
+        <v>6036</v>
       </c>
       <c r="D143" s="8">
-        <v>9134</v>
+        <v>9117</v>
       </c>
       <c r="E143" s="8">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F143" s="8">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="G143" s="8">
         <v>64</v>
@@ -26111,40 +26111,40 @@
         <v>211</v>
       </c>
       <c r="I143" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J143" s="8">
         <v>189</v>
       </c>
       <c r="K143" s="8">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="L143" s="8">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M143" s="8">
         <v>218</v>
       </c>
       <c r="N143" s="8">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="O143" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P143" s="8">
         <v>28</v>
       </c>
       <c r="Q143" s="8">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R143" s="8">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="S143" s="8">
         <v>98</v>
       </c>
       <c r="T143" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U143" s="8">
         <v>12984</v>
@@ -26204,19 +26204,19 @@
         <v>302</v>
       </c>
       <c r="AN143" s="8">
-        <v>28165</v>
+        <v>28136</v>
       </c>
       <c r="AO143" s="8">
-        <v>8551</v>
+        <v>8540</v>
       </c>
       <c r="AP143" s="8">
-        <v>19614</v>
+        <v>19597</v>
       </c>
       <c r="AQ143" s="8">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="AR143" s="8">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="AS143" s="8">
         <v>1211</v>
@@ -26225,22 +26225,22 @@
         <v>986</v>
       </c>
       <c r="AU143" s="8">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AV143" s="8">
         <v>555</v>
       </c>
       <c r="AW143" s="8">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="AX143" s="8">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="AY143" s="8">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AZ143" s="8">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="BA143" s="8">
         <v>888</v>
@@ -26249,13 +26249,13 @@
         <v>322</v>
       </c>
       <c r="BC143" s="8">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BD143" s="8">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="BE143" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF143" s="8">
         <v>422</v>
@@ -26266,61 +26266,61 @@
         <v>44166</v>
       </c>
       <c r="B144" s="8">
-        <v>16929</v>
+        <v>16883</v>
       </c>
       <c r="C144" s="8">
-        <v>6430</v>
+        <v>6413</v>
       </c>
       <c r="D144" s="8">
-        <v>10499</v>
+        <v>10470</v>
       </c>
       <c r="E144" s="8">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F144" s="8">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="G144" s="8">
         <v>59</v>
       </c>
       <c r="H144" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I144" s="8">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J144" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K144" s="8">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="L144" s="8">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="M144" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N144" s="8">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="O144" s="8">
         <v>159</v>
       </c>
       <c r="P144" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q144" s="8">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="R144" s="8">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="S144" s="8">
         <v>87</v>
       </c>
       <c r="T144" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U144" s="8">
         <v>15787</v>
@@ -26380,19 +26380,19 @@
         <v>376</v>
       </c>
       <c r="AN144" s="8">
-        <v>32716</v>
+        <v>32670</v>
       </c>
       <c r="AO144" s="8">
-        <v>9308</v>
+        <v>9290</v>
       </c>
       <c r="AP144" s="8">
-        <v>23409</v>
+        <v>23380</v>
       </c>
       <c r="AQ144" s="8">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="AR144" s="8">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="AS144" s="8">
         <v>1653</v>
@@ -26401,34 +26401,34 @@
         <v>1207</v>
       </c>
       <c r="AU144" s="8">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="AV144" s="8">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AW144" s="8">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="AX144" s="8">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="AY144" s="8">
         <v>791</v>
       </c>
       <c r="AZ144" s="8">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="BA144" s="8">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="BB144" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BC144" s="8">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="BD144" s="8">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="BE144" s="8">
         <v>176</v>
@@ -26442,55 +26442,55 @@
         <v>44256</v>
       </c>
       <c r="B145" s="8">
-        <v>14540</v>
+        <v>14493</v>
       </c>
       <c r="C145" s="8">
-        <v>5736</v>
+        <v>5717</v>
       </c>
       <c r="D145" s="8">
-        <v>8805</v>
+        <v>8776</v>
       </c>
       <c r="E145" s="8">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F145" s="8">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="G145" s="8">
         <v>67</v>
       </c>
       <c r="H145" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I145" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J145" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K145" s="8">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="L145" s="8">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="M145" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N145" s="8">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="O145" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P145" s="8">
         <v>89</v>
       </c>
       <c r="Q145" s="8">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="R145" s="8">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="S145" s="8">
         <v>76</v>
@@ -26556,19 +26556,19 @@
         <v>354</v>
       </c>
       <c r="AN145" s="8">
-        <v>28142</v>
+        <v>28095</v>
       </c>
       <c r="AO145" s="8">
-        <v>7961</v>
+        <v>7943</v>
       </c>
       <c r="AP145" s="8">
-        <v>20181</v>
+        <v>20152</v>
       </c>
       <c r="AQ145" s="8">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="AR145" s="8">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="AS145" s="8">
         <v>1602</v>
@@ -26577,22 +26577,22 @@
         <v>1067</v>
       </c>
       <c r="AU145" s="8">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AV145" s="8">
         <v>733</v>
       </c>
       <c r="AW145" s="8">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="AX145" s="8">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="AY145" s="8">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AZ145" s="8">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="BA145" s="8">
         <v>904</v>
@@ -26601,16 +26601,16 @@
         <v>305</v>
       </c>
       <c r="BC145" s="8">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="BD145" s="8">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="BE145" s="8">
         <v>152</v>
       </c>
       <c r="BF145" s="8">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:58" x14ac:dyDescent="0.2">
@@ -26618,55 +26618,55 @@
         <v>44348</v>
       </c>
       <c r="B146" s="8">
-        <v>17751</v>
+        <v>17688</v>
       </c>
       <c r="C146" s="8">
-        <v>6411</v>
+        <v>6388</v>
       </c>
       <c r="D146" s="8">
-        <v>11340</v>
+        <v>11300</v>
       </c>
       <c r="E146" s="8">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F146" s="8">
-        <v>2295</v>
+        <v>2287</v>
       </c>
       <c r="G146" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H146" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I146" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J146" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K146" s="8">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="L146" s="8">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="M146" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N146" s="8">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="O146" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P146" s="8">
         <v>89</v>
       </c>
       <c r="Q146" s="8">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="R146" s="8">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="S146" s="8">
         <v>99</v>
@@ -26732,43 +26732,43 @@
         <v>696</v>
       </c>
       <c r="AN146" s="8">
-        <v>35982</v>
+        <v>35919</v>
       </c>
       <c r="AO146" s="8">
-        <v>9257</v>
+        <v>9234</v>
       </c>
       <c r="AP146" s="8">
-        <v>26725</v>
+        <v>26685</v>
       </c>
       <c r="AQ146" s="8">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="AR146" s="8">
-        <v>2648</v>
+        <v>2640</v>
       </c>
       <c r="AS146" s="8">
         <v>2223</v>
       </c>
       <c r="AT146" s="8">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AU146" s="8">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="AV146" s="8">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AW146" s="8">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="AX146" s="8">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="AY146" s="8">
         <v>948</v>
       </c>
       <c r="AZ146" s="8">
-        <v>3347</v>
+        <v>3340</v>
       </c>
       <c r="BA146" s="8">
         <v>1140</v>
@@ -26777,10 +26777,10 @@
         <v>468</v>
       </c>
       <c r="BC146" s="8">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="BD146" s="8">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="BE146" s="8">
         <v>243</v>
@@ -26794,61 +26794,61 @@
         <v>44440</v>
       </c>
       <c r="B147" s="8">
-        <v>16659</v>
+        <v>16597</v>
       </c>
       <c r="C147" s="8">
-        <v>6605</v>
+        <v>6580</v>
       </c>
       <c r="D147" s="8">
-        <v>10055</v>
+        <v>10017</v>
       </c>
       <c r="E147" s="8">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F147" s="8">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="G147" s="8">
         <v>24</v>
       </c>
       <c r="H147" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I147" s="8">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J147" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K147" s="8">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="L147" s="8">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="M147" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N147" s="8">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="O147" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P147" s="8">
         <v>36</v>
       </c>
       <c r="Q147" s="8">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="R147" s="8">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="S147" s="8">
         <v>91</v>
       </c>
       <c r="T147" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U147" s="8">
         <v>15228</v>
@@ -26908,43 +26908,43 @@
         <v>409</v>
       </c>
       <c r="AN147" s="8">
-        <v>31888</v>
+        <v>31825</v>
       </c>
       <c r="AO147" s="8">
-        <v>9054</v>
+        <v>9029</v>
       </c>
       <c r="AP147" s="8">
-        <v>22834</v>
+        <v>22796</v>
       </c>
       <c r="AQ147" s="8">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="AR147" s="8">
-        <v>2357</v>
+        <v>2350</v>
       </c>
       <c r="AS147" s="8">
         <v>1624</v>
       </c>
       <c r="AT147" s="8">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AU147" s="8">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="AV147" s="8">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AW147" s="8">
-        <v>3242</v>
+        <v>3237</v>
       </c>
       <c r="AX147" s="8">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="AY147" s="8">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AZ147" s="8">
-        <v>2939</v>
+        <v>2933</v>
       </c>
       <c r="BA147" s="8">
         <v>900</v>
@@ -26953,13 +26953,13 @@
         <v>306</v>
       </c>
       <c r="BC147" s="8">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="BD147" s="8">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="BE147" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BF147" s="8">
         <v>505</v>
@@ -26970,175 +26970,351 @@
         <v>44531</v>
       </c>
       <c r="B148" s="8">
-        <v>18803</v>
+        <v>18954</v>
       </c>
       <c r="C148" s="8">
-        <v>7365</v>
+        <v>7546</v>
       </c>
       <c r="D148" s="8">
-        <v>11438</v>
+        <v>11408</v>
       </c>
       <c r="E148" s="8">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F148" s="8">
-        <v>2089</v>
+        <v>2056</v>
       </c>
       <c r="G148" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H148" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I148" s="8">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="J148" s="8">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K148" s="8">
-        <v>1451</v>
+        <v>1417</v>
       </c>
       <c r="L148" s="8">
-        <v>1540</v>
+        <v>1572</v>
       </c>
       <c r="M148" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N148" s="8">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="O148" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P148" s="8">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Q148" s="8">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="R148" s="8">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="S148" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T148" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U148" s="8">
-        <v>17109</v>
+        <v>17258</v>
       </c>
       <c r="V148" s="8">
-        <v>2887</v>
+        <v>2996</v>
       </c>
       <c r="W148" s="8">
-        <v>14222</v>
+        <v>14262</v>
       </c>
       <c r="X148" s="8">
-        <v>2165</v>
+        <v>2216</v>
       </c>
       <c r="Y148" s="8">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="Z148" s="8">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="AA148" s="8">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="AB148" s="8">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AC148" s="8">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="AD148" s="8">
-        <v>2071</v>
+        <v>2083</v>
       </c>
       <c r="AE148" s="8">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="AF148" s="8">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="AG148" s="8">
         <v>1197</v>
       </c>
       <c r="AH148" s="8">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="AI148" s="8">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="AJ148" s="8">
         <v>256</v>
       </c>
       <c r="AK148" s="8">
-        <v>884</v>
+        <v>846</v>
       </c>
       <c r="AL148" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM148" s="8">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AN148" s="8">
-        <v>35912</v>
+        <v>36212</v>
       </c>
       <c r="AO148" s="8">
-        <v>10252</v>
+        <v>10542</v>
       </c>
       <c r="AP148" s="8">
-        <v>25660</v>
+        <v>25670</v>
       </c>
       <c r="AQ148" s="8">
-        <v>2873</v>
+        <v>2930</v>
       </c>
       <c r="AR148" s="8">
-        <v>2452</v>
+        <v>2399</v>
       </c>
       <c r="AS148" s="8">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="AT148" s="8">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="AU148" s="8">
-        <v>1790</v>
+        <v>1760</v>
       </c>
       <c r="AV148" s="8">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="AW148" s="8">
-        <v>3521</v>
+        <v>3500</v>
       </c>
       <c r="AX148" s="8">
-        <v>1920</v>
+        <v>2008</v>
       </c>
       <c r="AY148" s="8">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="AZ148" s="8">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="BA148" s="8">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="BB148" s="8">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="BC148" s="8">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="BD148" s="8">
-        <v>1797</v>
+        <v>1767</v>
       </c>
       <c r="BE148" s="8">
         <v>309</v>
       </c>
       <c r="BF148" s="8">
-        <v>508</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="149" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B149" s="8">
+        <v>15548</v>
+      </c>
+      <c r="C149" s="8">
+        <v>6330</v>
+      </c>
+      <c r="D149" s="8">
+        <v>9218</v>
+      </c>
+      <c r="E149" s="8">
+        <v>598</v>
+      </c>
+      <c r="F149" s="8">
+        <v>1950</v>
+      </c>
+      <c r="G149" s="8">
+        <v>49</v>
+      </c>
+      <c r="H149" s="8">
+        <v>227</v>
+      </c>
+      <c r="I149" s="8">
+        <v>226</v>
+      </c>
+      <c r="J149" s="8">
+        <v>238</v>
+      </c>
+      <c r="K149" s="8">
+        <v>1207</v>
+      </c>
+      <c r="L149" s="8">
+        <v>1465</v>
+      </c>
+      <c r="M149" s="8">
+        <v>116</v>
+      </c>
+      <c r="N149" s="8">
+        <v>1484</v>
+      </c>
+      <c r="O149" s="8">
+        <v>116</v>
+      </c>
+      <c r="P149" s="8">
+        <v>71</v>
+      </c>
+      <c r="Q149" s="8">
+        <v>534</v>
+      </c>
+      <c r="R149" s="8">
+        <v>750</v>
+      </c>
+      <c r="S149" s="8">
+        <v>89</v>
+      </c>
+      <c r="T149" s="8">
+        <v>99</v>
+      </c>
+      <c r="U149" s="8">
+        <v>13835</v>
+      </c>
+      <c r="V149" s="8">
+        <v>2391</v>
+      </c>
+      <c r="W149" s="8">
+        <v>11444</v>
+      </c>
+      <c r="X149" s="8">
+        <v>1731</v>
+      </c>
+      <c r="Y149" s="8">
+        <v>238</v>
+      </c>
+      <c r="Z149" s="8">
+        <v>1457</v>
+      </c>
+      <c r="AA149" s="8">
+        <v>888</v>
+      </c>
+      <c r="AB149" s="8">
+        <v>830</v>
+      </c>
+      <c r="AC149" s="8">
+        <v>498</v>
+      </c>
+      <c r="AD149" s="8">
+        <v>1612</v>
+      </c>
+      <c r="AE149" s="8">
+        <v>251</v>
+      </c>
+      <c r="AF149" s="8">
+        <v>665</v>
+      </c>
+      <c r="AG149" s="8">
+        <v>1088</v>
+      </c>
+      <c r="AH149" s="8">
+        <v>708</v>
+      </c>
+      <c r="AI149" s="8">
+        <v>249</v>
+      </c>
+      <c r="AJ149" s="8">
+        <v>226</v>
+      </c>
+      <c r="AK149" s="8">
+        <v>610</v>
+      </c>
+      <c r="AL149" s="8">
+        <v>107</v>
+      </c>
+      <c r="AM149" s="8">
+        <v>285</v>
+      </c>
+      <c r="AN149" s="8">
+        <v>29383</v>
+      </c>
+      <c r="AO149" s="8">
+        <v>8722</v>
+      </c>
+      <c r="AP149" s="8">
+        <v>20662</v>
+      </c>
+      <c r="AQ149" s="8">
+        <v>2329</v>
+      </c>
+      <c r="AR149" s="8">
+        <v>2188</v>
+      </c>
+      <c r="AS149" s="8">
+        <v>1506</v>
+      </c>
+      <c r="AT149" s="8">
+        <v>1114</v>
+      </c>
+      <c r="AU149" s="8">
+        <v>1056</v>
+      </c>
+      <c r="AV149" s="8">
+        <v>736</v>
+      </c>
+      <c r="AW149" s="8">
+        <v>2819</v>
+      </c>
+      <c r="AX149" s="8">
+        <v>1716</v>
+      </c>
+      <c r="AY149" s="8">
+        <v>781</v>
+      </c>
+      <c r="AZ149" s="8">
+        <v>2572</v>
+      </c>
+      <c r="BA149" s="8">
+        <v>824</v>
+      </c>
+      <c r="BB149" s="8">
+        <v>320</v>
+      </c>
+      <c r="BC149" s="8">
+        <v>760</v>
+      </c>
+      <c r="BD149" s="8">
+        <v>1360</v>
+      </c>
+      <c r="BE149" s="8">
+        <v>196</v>
+      </c>
+      <c r="BF149" s="8">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
